--- a/poi-example/poi_demo.xlsx
+++ b/poi-example/poi_demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -672,6 +672,182 @@
         <v>23</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -735,6 +911,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
